--- a/playersDB.xlsx
+++ b/playersDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btrams\Desktop\coding\cric\cricketagain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499A8B2E-46A3-4C28-9F6F-47C41D2163C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1E70EA-2206-469B-A9A6-37A78792F931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="2292" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -19,28 +19,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$A$1:$L$588</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5192" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5196" uniqueCount="1083">
   <si>
     <t>cricsheet_name</t>
   </si>
@@ -3286,6 +3275,9 @@
   </si>
   <si>
     <t>Michael Jones</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
 </sst>
 </file>
@@ -3640,27 +3632,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L588"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A417" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H427" sqref="H427"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3694,8 +3686,11 @@
       <c r="K1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>45</v>
       </c>
@@ -3730,7 +3725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>42</v>
       </c>
@@ -3765,7 +3760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>18</v>
       </c>
@@ -3800,7 +3795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>41</v>
       </c>
@@ -3838,7 +3833,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>81</v>
       </c>
@@ -3873,7 +3868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>17</v>
       </c>
@@ -3902,7 +3897,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3937,7 +3932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>15</v>
       </c>
@@ -3972,7 +3967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>23</v>
       </c>
@@ -4007,7 +4002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -4042,7 +4037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>27</v>
       </c>
@@ -4077,7 +4072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4112,7 +4107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4141,7 +4136,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7</v>
       </c>
@@ -4179,7 +4174,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>33</v>
       </c>
@@ -4214,7 +4209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>93</v>
       </c>
@@ -4249,7 +4244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>59</v>
       </c>
@@ -4284,7 +4279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>21</v>
       </c>
@@ -4322,7 +4317,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>54</v>
       </c>
@@ -4357,7 +4352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -4392,7 +4387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>96</v>
       </c>
@@ -4427,7 +4422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>27</v>
       </c>
@@ -4462,7 +4457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>16</v>
       </c>
@@ -4497,7 +4492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>70</v>
       </c>
@@ -4532,7 +4527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>90</v>
       </c>
@@ -4567,7 +4562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>36</v>
       </c>
@@ -4602,7 +4597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24</v>
       </c>
@@ -4637,7 +4632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4672,7 +4667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>77</v>
       </c>
@@ -4707,7 +4702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>32</v>
       </c>
@@ -4736,7 +4731,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>63</v>
       </c>
@@ -4771,7 +4766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>9</v>
       </c>
@@ -4800,7 +4795,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>12</v>
       </c>
@@ -4835,7 +4830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4870,7 +4865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>28</v>
       </c>
@@ -4905,7 +4900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>55</v>
       </c>
@@ -4940,7 +4935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>25</v>
       </c>
@@ -4975,7 +4970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>99</v>
       </c>
@@ -5010,7 +5005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>22</v>
       </c>
@@ -5045,7 +5040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>57</v>
       </c>
@@ -5080,7 +5075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -5115,7 +5110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>73</v>
       </c>
@@ -5150,7 +5145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>455</v>
       </c>
@@ -5182,7 +5177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>456</v>
       </c>
@@ -5214,7 +5209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>457</v>
       </c>
@@ -5246,7 +5241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>458</v>
       </c>
@@ -5278,7 +5273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>459</v>
       </c>
@@ -5310,7 +5305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>460</v>
       </c>
@@ -5342,7 +5337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>461</v>
       </c>
@@ -5374,7 +5369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>462</v>
       </c>
@@ -5406,7 +5401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>463</v>
       </c>
@@ -5438,7 +5433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>464</v>
       </c>
@@ -5470,7 +5465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>28</v>
       </c>
@@ -5505,7 +5500,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>16</v>
       </c>
@@ -5540,7 +5535,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5569,7 +5564,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2</v>
       </c>
@@ -5607,7 +5602,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>69</v>
       </c>
@@ -5642,7 +5637,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>66</v>
       </c>
@@ -5677,7 +5672,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -5712,7 +5707,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>75</v>
       </c>
@@ -5747,7 +5742,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>99</v>
       </c>
@@ -5782,7 +5777,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>63</v>
       </c>
@@ -5817,7 +5812,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>8</v>
       </c>
@@ -5852,7 +5847,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>125</v>
       </c>
@@ -5887,7 +5882,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>17</v>
       </c>
@@ -5922,7 +5917,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>7</v>
       </c>
@@ -5957,7 +5952,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>31</v>
       </c>
@@ -5992,7 +5987,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>49</v>
       </c>
@@ -6027,7 +6022,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>65</v>
       </c>
@@ -6062,7 +6057,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>86</v>
       </c>
@@ -6097,7 +6092,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>82</v>
       </c>
@@ -6132,7 +6127,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>57</v>
       </c>
@@ -6167,7 +6162,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>46</v>
       </c>
@@ -6202,7 +6197,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>135</v>
       </c>
@@ -6234,7 +6229,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>23</v>
       </c>
@@ -6263,7 +6258,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>80</v>
       </c>
@@ -6298,7 +6293,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>74</v>
       </c>
@@ -6333,7 +6328,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>15</v>
       </c>
@@ -6362,7 +6357,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>85</v>
       </c>
@@ -6397,7 +6392,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>141</v>
       </c>
@@ -6420,7 +6415,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>36</v>
       </c>
@@ -6458,7 +6453,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>143</v>
       </c>
@@ -6490,7 +6485,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>84</v>
       </c>
@@ -6528,7 +6523,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>145</v>
       </c>
@@ -6560,7 +6555,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>146</v>
       </c>
@@ -6592,7 +6587,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>54</v>
       </c>
@@ -6627,7 +6622,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>148</v>
       </c>
@@ -6659,7 +6654,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>149</v>
       </c>
@@ -6691,7 +6686,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>150</v>
       </c>
@@ -6723,7 +6718,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>151</v>
       </c>
@@ -6755,7 +6750,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>152</v>
       </c>
@@ -6787,7 +6782,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>48</v>
       </c>
@@ -6816,7 +6811,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>154</v>
       </c>
@@ -6848,7 +6843,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>155</v>
       </c>
@@ -6880,7 +6875,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>156</v>
       </c>
@@ -6912,7 +6907,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>469</v>
       </c>
@@ -6944,7 +6939,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>470</v>
       </c>
@@ -6976,7 +6971,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>471</v>
       </c>
@@ -7008,7 +7003,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>472</v>
       </c>
@@ -7040,7 +7035,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>473</v>
       </c>
@@ -7072,7 +7067,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>474</v>
       </c>
@@ -7104,7 +7099,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>475</v>
       </c>
@@ -7136,7 +7131,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>203</v>
       </c>
@@ -7168,7 +7163,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>204</v>
       </c>
@@ -7200,7 +7195,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>205</v>
       </c>
@@ -7235,7 +7230,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>206</v>
       </c>
@@ -7270,7 +7265,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>207</v>
       </c>
@@ -7302,7 +7297,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>208</v>
       </c>
@@ -7334,7 +7329,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>209</v>
       </c>
@@ -7369,7 +7364,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>210</v>
       </c>
@@ -7401,7 +7396,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>211</v>
       </c>
@@ -7433,7 +7428,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>212</v>
       </c>
@@ -7465,7 +7460,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>213</v>
       </c>
@@ -7497,7 +7492,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>214</v>
       </c>
@@ -7529,7 +7524,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>215</v>
       </c>
@@ -7561,7 +7556,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>216</v>
       </c>
@@ -7593,7 +7588,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>217</v>
       </c>
@@ -7625,7 +7620,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>218</v>
       </c>
@@ -7657,7 +7652,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>219</v>
       </c>
@@ -7689,7 +7684,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>220</v>
       </c>
@@ -7721,7 +7716,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>221</v>
       </c>
@@ -7753,7 +7748,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>222</v>
       </c>
@@ -7785,7 +7780,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>223</v>
       </c>
@@ -7817,7 +7812,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>224</v>
       </c>
@@ -7849,7 +7844,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>225</v>
       </c>
@@ -7881,7 +7876,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>226</v>
       </c>
@@ -7913,7 +7908,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>227</v>
       </c>
@@ -7945,7 +7940,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>228</v>
       </c>
@@ -7977,7 +7972,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>229</v>
       </c>
@@ -8009,7 +8004,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>230</v>
       </c>
@@ -8041,7 +8036,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>231</v>
       </c>
@@ -8073,7 +8068,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>232</v>
       </c>
@@ -8105,7 +8100,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>233</v>
       </c>
@@ -8137,7 +8132,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>234</v>
       </c>
@@ -8169,7 +8164,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>235</v>
       </c>
@@ -8201,7 +8196,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>236</v>
       </c>
@@ -8227,7 +8222,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>237</v>
       </c>
@@ -8259,7 +8254,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>238</v>
       </c>
@@ -8291,7 +8286,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>495</v>
       </c>
@@ -8317,7 +8312,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>276</v>
       </c>
@@ -8349,7 +8344,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>277</v>
       </c>
@@ -8372,7 +8367,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>278</v>
       </c>
@@ -8398,7 +8393,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>279</v>
       </c>
@@ -8421,7 +8416,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="145" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>280</v>
       </c>
@@ -8456,7 +8451,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="146" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>281</v>
       </c>
@@ -8488,7 +8483,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="147" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>282</v>
       </c>
@@ -8520,7 +8515,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>283</v>
       </c>
@@ -8552,7 +8547,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>284</v>
       </c>
@@ -8584,7 +8579,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>285</v>
       </c>
@@ -8616,7 +8611,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>286</v>
       </c>
@@ -8648,7 +8643,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>287</v>
       </c>
@@ -8680,7 +8675,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="153" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>288</v>
       </c>
@@ -8712,7 +8707,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="154" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>289</v>
       </c>
@@ -8747,7 +8742,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="155" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>290</v>
       </c>
@@ -8779,7 +8774,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="156" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>291</v>
       </c>
@@ -8811,7 +8806,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="157" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>292</v>
       </c>
@@ -8843,7 +8838,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="158" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>293</v>
       </c>
@@ -8866,7 +8861,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="159" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>294</v>
       </c>
@@ -8898,7 +8893,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="160" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>295</v>
       </c>
@@ -8930,7 +8925,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>296</v>
       </c>
@@ -8962,7 +8957,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>297</v>
       </c>
@@ -8994,7 +8989,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>298</v>
       </c>
@@ -9017,7 +9012,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>299</v>
       </c>
@@ -9049,7 +9044,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>300</v>
       </c>
@@ -9081,7 +9076,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>301</v>
       </c>
@@ -9113,7 +9108,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="167" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>302</v>
       </c>
@@ -9145,7 +9140,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="168" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>303</v>
       </c>
@@ -9171,7 +9166,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>304</v>
       </c>
@@ -9203,7 +9198,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>305</v>
       </c>
@@ -9235,7 +9230,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>306</v>
       </c>
@@ -9267,7 +9262,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="172" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>307</v>
       </c>
@@ -9299,7 +9294,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="173" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>308</v>
       </c>
@@ -9331,7 +9326,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="174" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>309</v>
       </c>
@@ -9363,7 +9358,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="175" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>310</v>
       </c>
@@ -9395,7 +9390,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="176" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>311</v>
       </c>
@@ -9421,7 +9416,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="177" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>312</v>
       </c>
@@ -9453,7 +9448,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="178" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>313</v>
       </c>
@@ -9485,7 +9480,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="179" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>314</v>
       </c>
@@ -9517,7 +9512,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="180" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>315</v>
       </c>
@@ -9549,7 +9544,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="181" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>316</v>
       </c>
@@ -9581,7 +9576,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="182" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>317</v>
       </c>
@@ -9613,7 +9608,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="183" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>318</v>
       </c>
@@ -9645,7 +9640,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="184" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>319</v>
       </c>
@@ -9677,7 +9672,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="185" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>320</v>
       </c>
@@ -9709,7 +9704,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="186" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>321</v>
       </c>
@@ -9741,7 +9736,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="187" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>322</v>
       </c>
@@ -9773,7 +9768,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="188" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>323</v>
       </c>
@@ -9799,7 +9794,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>327</v>
       </c>
@@ -9831,7 +9826,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="190" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>325</v>
       </c>
@@ -9863,7 +9858,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="191" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>324</v>
       </c>
@@ -9895,7 +9890,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="192" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>326</v>
       </c>
@@ -9927,7 +9922,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="193" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>380</v>
       </c>
@@ -9959,7 +9954,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="194" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>381</v>
       </c>
@@ -9991,7 +9986,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="195" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>382</v>
       </c>
@@ -10023,7 +10018,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="196" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>383</v>
       </c>
@@ -10055,7 +10050,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="197" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>384</v>
       </c>
@@ -10087,7 +10082,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="198" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>385</v>
       </c>
@@ -10113,7 +10108,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="199" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>386</v>
       </c>
@@ -10148,7 +10143,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="200" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>387</v>
       </c>
@@ -10180,7 +10175,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="201" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
         <v>388</v>
       </c>
@@ -10212,7 +10207,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="202" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
         <v>389</v>
       </c>
@@ -10244,7 +10239,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="203" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>390</v>
       </c>
@@ -10276,7 +10271,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="204" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>391</v>
       </c>
@@ -10308,7 +10303,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="205" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>392</v>
       </c>
@@ -10340,7 +10335,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="206" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
         <v>393</v>
       </c>
@@ -10372,7 +10367,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="207" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
         <v>394</v>
       </c>
@@ -10404,7 +10399,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="208" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
         <v>395</v>
       </c>
@@ -10436,7 +10431,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="209" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
         <v>396</v>
       </c>
@@ -10468,7 +10463,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="210" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
         <v>397</v>
       </c>
@@ -10500,7 +10495,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="211" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
         <v>398</v>
       </c>
@@ -10526,7 +10521,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="212" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
         <v>399</v>
       </c>
@@ -10558,7 +10553,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="213" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
         <v>400</v>
       </c>
@@ -10581,7 +10576,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="214" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
         <v>401</v>
       </c>
@@ -10613,7 +10608,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="215" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
         <v>402</v>
       </c>
@@ -10636,7 +10631,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="216" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
         <v>403</v>
       </c>
@@ -10668,7 +10663,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="217" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
         <v>428</v>
       </c>
@@ -10700,7 +10695,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="218" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>429</v>
       </c>
@@ -10732,7 +10727,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="219" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
         <v>430</v>
       </c>
@@ -10758,7 +10753,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="220" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
         <v>431</v>
       </c>
@@ -10790,7 +10785,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="221" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
         <v>432</v>
       </c>
@@ -10822,7 +10817,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="222" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
         <v>433</v>
       </c>
@@ -10854,7 +10849,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="223" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
         <v>434</v>
       </c>
@@ -10886,7 +10881,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="224" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
         <v>435</v>
       </c>
@@ -10918,7 +10913,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="225" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
         <v>436</v>
       </c>
@@ -10950,7 +10945,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="226" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
         <v>437</v>
       </c>
@@ -10982,7 +10977,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="227" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
         <v>438</v>
       </c>
@@ -11014,7 +11009,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="228" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
         <v>439</v>
       </c>
@@ -11046,7 +11041,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="229" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
         <v>440</v>
       </c>
@@ -11078,7 +11073,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="230" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
         <v>441</v>
       </c>
@@ -11110,7 +11105,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="231" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
         <v>442</v>
       </c>
@@ -11142,7 +11137,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="232" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B232" t="s">
         <v>497</v>
       </c>
@@ -11174,7 +11169,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="233" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
         <v>498</v>
       </c>
@@ -11200,7 +11195,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="234" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
         <v>499</v>
       </c>
@@ -11232,7 +11227,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="235" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
         <v>500</v>
       </c>
@@ -11264,7 +11259,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="236" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
         <v>501</v>
       </c>
@@ -11296,7 +11291,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="237" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
         <v>502</v>
       </c>
@@ -11328,7 +11323,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="238" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
         <v>503</v>
       </c>
@@ -11360,7 +11355,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="239" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
         <v>504</v>
       </c>
@@ -11392,7 +11387,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="240" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
         <v>505</v>
       </c>
@@ -11424,7 +11419,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="241" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
         <v>506</v>
       </c>
@@ -11456,7 +11451,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="242" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
         <v>507</v>
       </c>
@@ -11488,7 +11483,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="243" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B243" t="s">
         <v>508</v>
       </c>
@@ -11520,7 +11515,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="244" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
         <v>509</v>
       </c>
@@ -11546,7 +11541,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="245" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
         <v>510</v>
       </c>
@@ -11569,7 +11564,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="246" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
         <v>511</v>
       </c>
@@ -11601,7 +11596,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="247" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
         <v>512</v>
       </c>
@@ -11633,7 +11628,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="248" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
         <v>522</v>
       </c>
@@ -11665,7 +11660,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="249" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
         <v>523</v>
       </c>
@@ -11697,7 +11692,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="250" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
         <v>524</v>
       </c>
@@ -11729,7 +11724,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="251" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
         <v>525</v>
       </c>
@@ -11761,7 +11756,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="252" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
         <v>526</v>
       </c>
@@ -11796,7 +11791,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="253" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
         <v>527</v>
       </c>
@@ -11828,7 +11823,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="254" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
         <v>528</v>
       </c>
@@ -11860,7 +11855,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="255" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
         <v>529</v>
       </c>
@@ -11892,7 +11887,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="256" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
         <v>530</v>
       </c>
@@ -11924,7 +11919,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="257" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
         <v>531</v>
       </c>
@@ -11956,7 +11951,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="258" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
         <v>532</v>
       </c>
@@ -11988,7 +11983,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="259" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
         <v>533</v>
       </c>
@@ -12020,7 +12015,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="260" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
         <v>534</v>
       </c>
@@ -12052,7 +12047,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="261" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B261" t="s">
         <v>535</v>
       </c>
@@ -12084,7 +12079,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="262" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
         <v>536</v>
       </c>
@@ -12119,7 +12114,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="263" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
         <v>537</v>
       </c>
@@ -12151,7 +12146,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="264" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
         <v>538</v>
       </c>
@@ -12183,7 +12178,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="265" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
         <v>539</v>
       </c>
@@ -12215,7 +12210,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="266" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
         <v>540</v>
       </c>
@@ -12250,7 +12245,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="267" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
         <v>541</v>
       </c>
@@ -12282,7 +12277,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="268" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
         <v>542</v>
       </c>
@@ -12314,7 +12309,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="269" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
         <v>543</v>
       </c>
@@ -12346,7 +12341,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="270" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
         <v>544</v>
       </c>
@@ -12378,7 +12373,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="271" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
         <v>545</v>
       </c>
@@ -12410,7 +12405,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="272" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
         <v>546</v>
       </c>
@@ -12436,7 +12431,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="273" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
         <v>547</v>
       </c>
@@ -12471,7 +12466,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="274" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
         <v>548</v>
       </c>
@@ -12503,7 +12498,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="275" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
         <v>549</v>
       </c>
@@ -12538,7 +12533,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="276" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
         <v>550</v>
       </c>
@@ -12570,7 +12565,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="277" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
         <v>551</v>
       </c>
@@ -12602,7 +12597,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="278" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
         <v>552</v>
       </c>
@@ -12634,7 +12629,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="279" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
         <v>553</v>
       </c>
@@ -12666,7 +12661,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="280" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
         <v>554</v>
       </c>
@@ -12698,7 +12693,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="281" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
         <v>555</v>
       </c>
@@ -12730,7 +12725,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="282" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
         <v>590</v>
       </c>
@@ -12762,7 +12757,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="283" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
         <v>591</v>
       </c>
@@ -12794,7 +12789,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="284" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
         <v>592</v>
       </c>
@@ -12826,7 +12821,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="285" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
         <v>593</v>
       </c>
@@ -12858,7 +12853,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="286" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B286" t="s">
         <v>594</v>
       </c>
@@ -12890,7 +12885,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="287" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B287" t="s">
         <v>595</v>
       </c>
@@ -12916,7 +12911,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="288" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
         <v>596</v>
       </c>
@@ -12948,7 +12943,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="289" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B289" t="s">
         <v>597</v>
       </c>
@@ -12980,7 +12975,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="290" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B290" t="s">
         <v>598</v>
       </c>
@@ -13012,7 +13007,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="291" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B291" t="s">
         <v>599</v>
       </c>
@@ -13044,7 +13039,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="292" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B292" t="s">
         <v>600</v>
       </c>
@@ -13076,7 +13071,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="293" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B293" t="s">
         <v>601</v>
       </c>
@@ -13108,7 +13103,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="294" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B294" t="s">
         <v>602</v>
       </c>
@@ -13140,7 +13135,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="295" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B295" t="s">
         <v>603</v>
       </c>
@@ -13172,7 +13167,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="296" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B296" t="s">
         <v>604</v>
       </c>
@@ -13204,7 +13199,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="297" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B297" t="s">
         <v>605</v>
       </c>
@@ -13236,7 +13231,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="298" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B298" t="s">
         <v>606</v>
       </c>
@@ -13268,7 +13263,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="299" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B299" t="s">
         <v>607</v>
       </c>
@@ -13300,7 +13295,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="300" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B300" t="s">
         <v>608</v>
       </c>
@@ -13332,7 +13327,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="301" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B301" t="s">
         <v>609</v>
       </c>
@@ -13364,7 +13359,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="302" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B302" t="s">
         <v>610</v>
       </c>
@@ -13396,7 +13391,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="303" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B303" t="s">
         <v>611</v>
       </c>
@@ -13428,7 +13423,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="304" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B304" t="s">
         <v>612</v>
       </c>
@@ -13460,7 +13455,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="305" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B305" t="s">
         <v>613</v>
       </c>
@@ -13492,7 +13487,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="306" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B306" t="s">
         <v>614</v>
       </c>
@@ -13524,7 +13519,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="307" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B307" t="s">
         <v>615</v>
       </c>
@@ -13556,7 +13551,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="308" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B308" t="s">
         <v>616</v>
       </c>
@@ -13588,7 +13583,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="309" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B309" t="s">
         <v>617</v>
       </c>
@@ -13623,7 +13618,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="310" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B310" t="s">
         <v>618</v>
       </c>
@@ -13655,7 +13650,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="311" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B311" t="s">
         <v>619</v>
       </c>
@@ -13678,7 +13673,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="312" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B312" t="s">
         <v>654</v>
       </c>
@@ -13704,7 +13699,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="313" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B313" t="s">
         <v>655</v>
       </c>
@@ -13736,7 +13731,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="314" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B314" t="s">
         <v>656</v>
       </c>
@@ -13768,7 +13763,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="315" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B315" t="s">
         <v>657</v>
       </c>
@@ -13800,7 +13795,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="316" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B316" t="s">
         <v>658</v>
       </c>
@@ -13832,7 +13827,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="317" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B317" t="s">
         <v>659</v>
       </c>
@@ -13864,7 +13859,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="318" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B318" t="s">
         <v>660</v>
       </c>
@@ -13896,7 +13891,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="319" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B319" t="s">
         <v>661</v>
       </c>
@@ -13928,7 +13923,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="320" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B320" t="s">
         <v>662</v>
       </c>
@@ -13960,7 +13955,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="321" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B321" t="s">
         <v>663</v>
       </c>
@@ -13992,7 +13987,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="322" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B322" t="s">
         <v>664</v>
       </c>
@@ -14024,7 +14019,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="323" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B323" t="s">
         <v>665</v>
       </c>
@@ -14056,7 +14051,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="324" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B324" t="s">
         <v>666</v>
       </c>
@@ -14082,7 +14077,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="325" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B325" t="s">
         <v>667</v>
       </c>
@@ -14114,7 +14109,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="326" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B326" t="s">
         <v>668</v>
       </c>
@@ -14146,7 +14141,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="327" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B327" t="s">
         <v>669</v>
       </c>
@@ -14178,7 +14173,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="328" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B328" t="s">
         <v>670</v>
       </c>
@@ -14210,7 +14205,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="329" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>671</v>
       </c>
@@ -14242,7 +14237,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="330" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>672</v>
       </c>
@@ -14274,7 +14269,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="331" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>673</v>
       </c>
@@ -14306,7 +14301,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="332" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>674</v>
       </c>
@@ -14338,7 +14333,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="333" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>675</v>
       </c>
@@ -14370,7 +14365,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="334" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>676</v>
       </c>
@@ -14396,7 +14391,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="335" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>677</v>
       </c>
@@ -14428,7 +14423,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="336" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B336" t="s">
         <v>678</v>
       </c>
@@ -14460,7 +14455,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="337" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>679</v>
       </c>
@@ -14483,7 +14478,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="338" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>680</v>
       </c>
@@ -14515,7 +14510,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="339" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>681</v>
       </c>
@@ -14538,7 +14533,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="340" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>682</v>
       </c>
@@ -14570,7 +14565,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="341" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>683</v>
       </c>
@@ -14602,7 +14597,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="342" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B342" t="s">
         <v>684</v>
       </c>
@@ -14634,7 +14629,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="343" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B343" t="s">
         <v>685</v>
       </c>
@@ -14666,7 +14661,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="344" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B344" t="s">
         <v>686</v>
       </c>
@@ -14698,7 +14693,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="345" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B345" t="s">
         <v>687</v>
       </c>
@@ -14730,7 +14725,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="346" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>691</v>
       </c>
@@ -14756,7 +14751,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="347" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B347" t="s">
         <v>692</v>
       </c>
@@ -14788,7 +14783,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="348" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>693</v>
       </c>
@@ -14820,7 +14815,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="349" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>694</v>
       </c>
@@ -14852,7 +14847,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="350" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>695</v>
       </c>
@@ -14884,7 +14879,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="351" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>696</v>
       </c>
@@ -14916,7 +14911,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="352" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>697</v>
       </c>
@@ -14948,7 +14943,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="353" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>698</v>
       </c>
@@ -14980,7 +14975,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="354" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>699</v>
       </c>
@@ -15012,7 +15007,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="355" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>700</v>
       </c>
@@ -15044,7 +15039,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="356" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>701</v>
       </c>
@@ -15076,7 +15071,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="357" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B357" t="s">
         <v>702</v>
       </c>
@@ -15108,7 +15103,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="358" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>703</v>
       </c>
@@ -15140,7 +15135,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="359" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>704</v>
       </c>
@@ -15172,7 +15167,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="360" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B360" t="s">
         <v>705</v>
       </c>
@@ -15204,7 +15199,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="361" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>706</v>
       </c>
@@ -15236,7 +15231,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="362" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B362" t="s">
         <v>707</v>
       </c>
@@ -15268,7 +15263,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="363" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B363" t="s">
         <v>708</v>
       </c>
@@ -15303,7 +15298,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="364" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>709</v>
       </c>
@@ -15338,7 +15333,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="365" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B365" t="s">
         <v>710</v>
       </c>
@@ -15370,7 +15365,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="366" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>711</v>
       </c>
@@ -15402,7 +15397,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="367" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B367" t="s">
         <v>712</v>
       </c>
@@ -15434,7 +15429,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="368" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B368" t="s">
         <v>713</v>
       </c>
@@ -15466,7 +15461,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="369" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B369" t="s">
         <v>714</v>
       </c>
@@ -15498,7 +15493,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="370" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B370" t="s">
         <v>715</v>
       </c>
@@ -15530,7 +15525,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="371" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B371" t="s">
         <v>716</v>
       </c>
@@ -15562,7 +15557,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="372" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B372" t="s">
         <v>717</v>
       </c>
@@ -15594,7 +15589,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="373" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B373" t="s">
         <v>718</v>
       </c>
@@ -15626,7 +15621,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="374" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B374" t="s">
         <v>719</v>
       </c>
@@ -15658,7 +15653,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="375" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B375" t="s">
         <v>720</v>
       </c>
@@ -15690,7 +15685,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="376" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B376" t="s">
         <v>721</v>
       </c>
@@ -15722,7 +15717,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="377" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B377" t="s">
         <v>722</v>
       </c>
@@ -15754,7 +15749,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="378" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B378" t="s">
         <v>723</v>
       </c>
@@ -15786,7 +15781,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="379" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B379" t="s">
         <v>724</v>
       </c>
@@ -15818,7 +15813,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="380" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B380" t="s">
         <v>725</v>
       </c>
@@ -15844,7 +15839,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="381" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B381" t="s">
         <v>726</v>
       </c>
@@ -15876,7 +15871,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="382" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B382" t="s">
         <v>727</v>
       </c>
@@ -15911,7 +15906,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="383" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B383" t="s">
         <v>728</v>
       </c>
@@ -15943,7 +15938,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="384" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B384" t="s">
         <v>766</v>
       </c>
@@ -15966,7 +15961,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="385" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B385" t="s">
         <v>767</v>
       </c>
@@ -16001,7 +15996,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="386" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B386" t="s">
         <v>768</v>
       </c>
@@ -16036,7 +16031,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="387" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B387" t="s">
         <v>769</v>
       </c>
@@ -16068,7 +16063,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="388" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B388" t="s">
         <v>770</v>
       </c>
@@ -16100,7 +16095,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="389" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B389" t="s">
         <v>771</v>
       </c>
@@ -16126,7 +16121,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="390" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B390" t="s">
         <v>772</v>
       </c>
@@ -16158,7 +16153,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="391" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B391" t="s">
         <v>773</v>
       </c>
@@ -16190,7 +16185,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="392" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B392" t="s">
         <v>774</v>
       </c>
@@ -16222,7 +16217,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="393" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B393" t="s">
         <v>775</v>
       </c>
@@ -16254,7 +16249,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="394" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B394" t="s">
         <v>776</v>
       </c>
@@ -16286,7 +16281,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="395" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B395" t="s">
         <v>777</v>
       </c>
@@ -16318,7 +16313,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="396" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B396" t="s">
         <v>778</v>
       </c>
@@ -16350,7 +16345,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="397" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B397" t="s">
         <v>779</v>
       </c>
@@ -16382,7 +16377,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="398" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B398" t="s">
         <v>780</v>
       </c>
@@ -16408,7 +16403,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="399" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B399" t="s">
         <v>781</v>
       </c>
@@ -16440,7 +16435,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="400" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B400" t="s">
         <v>782</v>
       </c>
@@ -16472,7 +16467,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="401" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B401" t="s">
         <v>783</v>
       </c>
@@ -16504,7 +16499,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="402" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B402" t="s">
         <v>784</v>
       </c>
@@ -16536,7 +16531,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="403" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B403" t="s">
         <v>785</v>
       </c>
@@ -16568,7 +16563,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="404" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B404" t="s">
         <v>786</v>
       </c>
@@ -16594,7 +16589,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="405" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B405" t="s">
         <v>787</v>
       </c>
@@ -16626,7 +16621,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="406" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B406" t="s">
         <v>788</v>
       </c>
@@ -16658,7 +16653,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="407" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B407" t="s">
         <v>789</v>
       </c>
@@ -16690,7 +16685,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="408" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B408" t="s">
         <v>790</v>
       </c>
@@ -16725,7 +16720,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="409" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B409" t="s">
         <v>791</v>
       </c>
@@ -16760,7 +16755,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="410" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B410" t="s">
         <v>792</v>
       </c>
@@ -16792,7 +16787,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="411" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B411" t="s">
         <v>793</v>
       </c>
@@ -16818,7 +16813,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="412" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B412" t="s">
         <v>794</v>
       </c>
@@ -16850,7 +16845,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="413" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B413" t="s">
         <v>795</v>
       </c>
@@ -16882,7 +16877,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="414" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B414" t="s">
         <v>796</v>
       </c>
@@ -16914,7 +16909,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="415" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B415" t="s">
         <v>797</v>
       </c>
@@ -16946,7 +16941,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="416" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B416" t="s">
         <v>798</v>
       </c>
@@ -16978,7 +16973,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="417" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B417" t="s">
         <v>799</v>
       </c>
@@ -17010,7 +17005,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="418" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B418" t="s">
         <v>800</v>
       </c>
@@ -17042,7 +17037,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="419" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B419" t="s">
         <v>801</v>
       </c>
@@ -17074,7 +17069,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="420" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B420" t="s">
         <v>802</v>
       </c>
@@ -17106,7 +17101,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="421" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B421" t="s">
         <v>803</v>
       </c>
@@ -17138,7 +17133,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="422" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B422" t="s">
         <v>804</v>
       </c>
@@ -17170,7 +17165,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="423" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B423" t="s">
         <v>805</v>
       </c>
@@ -17202,7 +17197,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="424" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B424" t="s">
         <v>845</v>
       </c>
@@ -17225,7 +17220,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="425" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B425" t="s">
         <v>846</v>
       </c>
@@ -17257,7 +17252,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="426" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B426" t="s">
         <v>847</v>
       </c>
@@ -17276,6 +17271,15 @@
       <c r="G426" t="s">
         <v>57</v>
       </c>
+      <c r="H426" t="s">
+        <v>58</v>
+      </c>
+      <c r="I426" t="s">
+        <v>59</v>
+      </c>
+      <c r="J426" t="s">
+        <v>57</v>
+      </c>
       <c r="K426" t="s">
         <v>485</v>
       </c>
@@ -17283,7 +17287,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="427" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B427" t="s">
         <v>848</v>
       </c>
@@ -17309,7 +17313,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="428" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B428" t="s">
         <v>849</v>
       </c>
@@ -17341,7 +17345,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="429" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B429" t="s">
         <v>850</v>
       </c>
@@ -17373,7 +17377,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="430" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B430" t="s">
         <v>851</v>
       </c>
@@ -17405,7 +17409,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="431" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B431" t="s">
         <v>852</v>
       </c>
@@ -17437,7 +17441,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="432" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B432" t="s">
         <v>853</v>
       </c>
@@ -17469,7 +17473,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="433" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B433" t="s">
         <v>854</v>
       </c>
@@ -17501,7 +17505,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="434" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B434" t="s">
         <v>855</v>
       </c>
@@ -17533,7 +17537,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="435" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B435" t="s">
         <v>856</v>
       </c>
@@ -17565,7 +17569,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="436" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B436" t="s">
         <v>857</v>
       </c>
@@ -17591,7 +17595,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="437" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B437" t="s">
         <v>858</v>
       </c>
@@ -17623,7 +17627,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="438" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B438" t="s">
         <v>859</v>
       </c>
@@ -17655,7 +17659,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="439" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B439" t="s">
         <v>860</v>
       </c>
@@ -17687,7 +17691,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="440" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B440" t="s">
         <v>861</v>
       </c>
@@ -17722,7 +17726,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="441" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B441" t="s">
         <v>862</v>
       </c>
@@ -17754,7 +17758,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="442" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B442" t="s">
         <v>863</v>
       </c>
@@ -17786,7 +17790,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="443" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B443" t="s">
         <v>864</v>
       </c>
@@ -17818,7 +17822,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="444" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B444" t="s">
         <v>865</v>
       </c>
@@ -17841,7 +17845,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="445" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B445" t="s">
         <v>866</v>
       </c>
@@ -17873,7 +17877,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="446" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B446" t="s">
         <v>867</v>
       </c>
@@ -17905,7 +17909,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="447" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B447" t="s">
         <v>868</v>
       </c>
@@ -17937,7 +17941,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="448" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B448" t="s">
         <v>869</v>
       </c>
@@ -17969,7 +17973,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="449" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B449" t="s">
         <v>870</v>
       </c>
@@ -17995,7 +17999,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="450" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B450" t="s">
         <v>871</v>
       </c>
@@ -18027,7 +18031,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="451" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B451" t="s">
         <v>872</v>
       </c>
@@ -18059,7 +18063,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="452" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B452" t="s">
         <v>873</v>
       </c>
@@ -18091,7 +18095,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="453" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B453" t="s">
         <v>874</v>
       </c>
@@ -18123,7 +18127,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="454" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B454" t="s">
         <v>875</v>
       </c>
@@ -18155,7 +18159,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="455" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B455" t="s">
         <v>876</v>
       </c>
@@ -18187,7 +18191,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="456" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B456" t="s">
         <v>883</v>
       </c>
@@ -18219,7 +18223,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="457" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B457" t="s">
         <v>884</v>
       </c>
@@ -18251,7 +18255,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="458" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B458" t="s">
         <v>885</v>
       </c>
@@ -18283,7 +18287,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="459" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B459" t="s">
         <v>886</v>
       </c>
@@ -18315,7 +18319,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="460" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B460" t="s">
         <v>887</v>
       </c>
@@ -18347,7 +18351,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="461" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B461" t="s">
         <v>888</v>
       </c>
@@ -18379,7 +18383,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="462" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B462" t="s">
         <v>889</v>
       </c>
@@ -18405,7 +18409,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="463" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B463" t="s">
         <v>890</v>
       </c>
@@ -18437,7 +18441,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="464" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B464" t="s">
         <v>891</v>
       </c>
@@ -18469,7 +18473,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="465" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B465" t="s">
         <v>892</v>
       </c>
@@ -18501,7 +18505,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="466" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B466" t="s">
         <v>893</v>
       </c>
@@ -18533,7 +18537,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="467" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B467" t="s">
         <v>894</v>
       </c>
@@ -18565,7 +18569,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="468" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B468" t="s">
         <v>895</v>
       </c>
@@ -18597,7 +18601,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="469" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B469" t="s">
         <v>896</v>
       </c>
@@ -18629,7 +18633,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="470" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B470" t="s">
         <v>897</v>
       </c>
@@ -18661,7 +18665,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="471" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B471" t="s">
         <v>898</v>
       </c>
@@ -18687,7 +18691,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="472" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B472" t="s">
         <v>899</v>
       </c>
@@ -18719,7 +18723,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="473" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B473" t="s">
         <v>900</v>
       </c>
@@ -18751,7 +18755,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="474" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B474" t="s">
         <v>901</v>
       </c>
@@ -18783,7 +18787,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="475" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B475" t="s">
         <v>902</v>
       </c>
@@ -18815,7 +18819,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="476" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B476" t="s">
         <v>903</v>
       </c>
@@ -18847,7 +18851,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="477" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B477" t="s">
         <v>904</v>
       </c>
@@ -18879,7 +18883,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="478" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B478" t="s">
         <v>905</v>
       </c>
@@ -18911,7 +18915,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="479" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B479" t="s">
         <v>906</v>
       </c>
@@ -18943,7 +18947,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="480" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B480" t="s">
         <v>907</v>
       </c>
@@ -18975,7 +18979,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="481" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B481" t="s">
         <v>908</v>
       </c>
@@ -19007,7 +19011,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="482" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B482" t="s">
         <v>909</v>
       </c>
@@ -19033,7 +19037,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="483" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B483" t="s">
         <v>910</v>
       </c>
@@ -19068,7 +19072,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="484" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B484" t="s">
         <v>911</v>
       </c>
@@ -19100,7 +19104,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="485" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B485" t="s">
         <v>912</v>
       </c>
@@ -19132,7 +19136,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="486" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B486" t="s">
         <v>913</v>
       </c>
@@ -19164,7 +19168,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="487" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B487" t="s">
         <v>914</v>
       </c>
@@ -19196,7 +19200,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="488" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B488" t="s">
         <v>915</v>
       </c>
@@ -19228,7 +19232,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="489" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B489" t="s">
         <v>916</v>
       </c>
@@ -19260,7 +19264,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="490" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B490" t="s">
         <v>917</v>
       </c>
@@ -19292,7 +19296,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="491" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B491" t="s">
         <v>918</v>
       </c>
@@ -19324,7 +19328,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="492" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B492" t="s">
         <v>919</v>
       </c>
@@ -19350,7 +19354,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="493" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B493" t="s">
         <v>958</v>
       </c>
@@ -19382,7 +19386,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="494" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B494" t="s">
         <v>959</v>
       </c>
@@ -19408,7 +19412,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="495" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B495" t="s">
         <v>960</v>
       </c>
@@ -19440,7 +19444,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B496" t="s">
         <v>961</v>
       </c>
@@ -19472,7 +19476,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="497" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B497" t="s">
         <v>962</v>
       </c>
@@ -19495,7 +19499,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="498" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B498" t="s">
         <v>963</v>
       </c>
@@ -19527,7 +19531,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="499" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B499" t="s">
         <v>964</v>
       </c>
@@ -19559,7 +19563,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="500" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B500" t="s">
         <v>965</v>
       </c>
@@ -19591,7 +19595,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="501" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B501" t="s">
         <v>966</v>
       </c>
@@ -19623,7 +19627,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="502" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B502" t="s">
         <v>967</v>
       </c>
@@ -19655,7 +19659,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="503" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B503" t="s">
         <v>968</v>
       </c>
@@ -19687,7 +19691,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="504" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B504" t="s">
         <v>969</v>
       </c>
@@ -19719,7 +19723,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="505" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B505" t="s">
         <v>970</v>
       </c>
@@ -19751,7 +19755,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="506" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B506" t="s">
         <v>971</v>
       </c>
@@ -19783,7 +19787,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="507" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B507" t="s">
         <v>972</v>
       </c>
@@ -19815,7 +19819,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="508" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B508" t="s">
         <v>973</v>
       </c>
@@ -19847,7 +19851,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="509" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B509" t="s">
         <v>974</v>
       </c>
@@ -19879,7 +19883,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="510" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B510" t="s">
         <v>975</v>
       </c>
@@ -19911,7 +19915,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="511" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B511" t="s">
         <v>976</v>
       </c>
@@ -19943,7 +19947,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="512" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B512" t="s">
         <v>977</v>
       </c>
@@ -19969,7 +19973,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="513" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B513" t="s">
         <v>978</v>
       </c>
@@ -20001,7 +20005,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="514" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B514" t="s">
         <v>979</v>
       </c>
@@ -20033,7 +20037,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="515" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B515" t="s">
         <v>980</v>
       </c>
@@ -20065,7 +20069,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="516" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B516" t="s">
         <v>981</v>
       </c>
@@ -20097,7 +20101,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="517" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B517" t="s">
         <v>989</v>
       </c>
@@ -20120,7 +20124,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="518" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B518" t="s">
         <v>990</v>
       </c>
@@ -20152,7 +20156,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="519" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B519" t="s">
         <v>991</v>
       </c>
@@ -20184,7 +20188,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="520" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B520" t="s">
         <v>992</v>
       </c>
@@ -20216,7 +20220,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="521" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B521" t="s">
         <v>993</v>
       </c>
@@ -20251,7 +20255,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="522" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B522" t="s">
         <v>994</v>
       </c>
@@ -20283,7 +20287,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="523" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B523" t="s">
         <v>995</v>
       </c>
@@ -20315,7 +20319,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="524" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B524" t="s">
         <v>996</v>
       </c>
@@ -20347,7 +20351,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="525" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B525" t="s">
         <v>997</v>
       </c>
@@ -20379,7 +20383,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="526" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B526" t="s">
         <v>998</v>
       </c>
@@ -20411,7 +20415,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="527" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B527" t="s">
         <v>999</v>
       </c>
@@ -20443,7 +20447,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="528" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B528" t="s">
         <v>1000</v>
       </c>
@@ -20475,7 +20479,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="529" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B529" t="s">
         <v>1001</v>
       </c>
@@ -20507,7 +20511,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="530" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B530" t="s">
         <v>1002</v>
       </c>
@@ -20539,7 +20543,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="531" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B531" t="s">
         <v>1003</v>
       </c>
@@ -20571,7 +20575,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="532" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B532" t="s">
         <v>1004</v>
       </c>
@@ -20603,7 +20607,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="533" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B533" t="s">
         <v>1005</v>
       </c>
@@ -20635,7 +20639,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="534" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B534" t="s">
         <v>1006</v>
       </c>
@@ -20658,7 +20662,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="535" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B535" t="s">
         <v>1007</v>
       </c>
@@ -20693,7 +20697,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="536" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B536" t="s">
         <v>1008</v>
       </c>
@@ -20725,7 +20729,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="537" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B537" t="s">
         <v>1009</v>
       </c>
@@ -20748,7 +20752,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="538" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B538" t="s">
         <v>1010</v>
       </c>
@@ -20780,7 +20784,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="539" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B539" t="s">
         <v>1011</v>
       </c>
@@ -20812,7 +20816,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="540" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B540" t="s">
         <v>1012</v>
       </c>
@@ -20844,7 +20848,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="541" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B541" t="s">
         <v>1013</v>
       </c>
@@ -20876,7 +20880,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="542" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B542" t="s">
         <v>1014</v>
       </c>
@@ -20908,7 +20912,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="543" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B543" t="s">
         <v>1015</v>
       </c>
@@ -20940,7 +20944,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="544" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B544" t="s">
         <v>1016</v>
       </c>
@@ -20972,7 +20976,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="545" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B545" t="s">
         <v>1017</v>
       </c>
@@ -21004,7 +21008,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="546" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B546" t="s">
         <v>1018</v>
       </c>
@@ -21036,7 +21040,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="547" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B547" t="s">
         <v>1019</v>
       </c>
@@ -21068,7 +21072,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="548" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B548" t="s">
         <v>1020</v>
       </c>
@@ -21100,7 +21104,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="549" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B549" t="s">
         <v>1021</v>
       </c>
@@ -21132,7 +21136,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="550" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B550" t="s">
         <v>1022</v>
       </c>
@@ -21164,7 +21168,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="551" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B551" t="s">
         <v>1023</v>
       </c>
@@ -21196,7 +21200,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="552" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B552" t="s">
         <v>1024</v>
       </c>
@@ -21228,7 +21232,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="553" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B553" t="s">
         <v>1025</v>
       </c>
@@ -21260,7 +21264,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="554" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B554" t="s">
         <v>1026</v>
       </c>
@@ -21292,7 +21296,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="555" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B555" t="s">
         <v>1027</v>
       </c>
@@ -21324,7 +21328,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="556" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B556" t="s">
         <v>1028</v>
       </c>
@@ -21356,7 +21360,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="557" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B557" t="s">
         <v>1031</v>
       </c>
@@ -21388,7 +21392,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="558" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B558" t="s">
         <v>1032</v>
       </c>
@@ -21420,7 +21424,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="559" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B559" t="s">
         <v>1033</v>
       </c>
@@ -21455,7 +21459,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="560" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B560" t="s">
         <v>1034</v>
       </c>
@@ -21487,7 +21491,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="561" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B561" t="s">
         <v>1035</v>
       </c>
@@ -21519,7 +21523,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="562" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B562" t="s">
         <v>1036</v>
       </c>
@@ -21551,7 +21555,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="563" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B563" t="s">
         <v>1037</v>
       </c>
@@ -21583,7 +21587,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="564" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B564" t="s">
         <v>1038</v>
       </c>
@@ -21609,7 +21613,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="565" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B565" t="s">
         <v>1039</v>
       </c>
@@ -21641,7 +21645,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="566" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B566" t="s">
         <v>1040</v>
       </c>
@@ -21673,7 +21677,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="567" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B567" t="s">
         <v>1041</v>
       </c>
@@ -21705,7 +21709,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="568" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B568" t="s">
         <v>1042</v>
       </c>
@@ -21737,7 +21741,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="569" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B569" t="s">
         <v>1043</v>
       </c>
@@ -21769,7 +21773,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="570" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B570" t="s">
         <v>1044</v>
       </c>
@@ -21795,7 +21799,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="571" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B571" t="s">
         <v>1047</v>
       </c>
@@ -21827,7 +21831,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="572" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B572" t="s">
         <v>1048</v>
       </c>
@@ -21859,7 +21863,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="573" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B573" t="s">
         <v>1049</v>
       </c>
@@ -21891,7 +21895,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="574" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B574" t="s">
         <v>1050</v>
       </c>
@@ -21923,7 +21927,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="575" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B575" t="s">
         <v>1051</v>
       </c>
@@ -21949,7 +21953,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="576" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B576" t="s">
         <v>1052</v>
       </c>
@@ -21981,7 +21985,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="577" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B577" t="s">
         <v>1053</v>
       </c>
@@ -22013,7 +22017,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="578" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B578" t="s">
         <v>1054</v>
       </c>
@@ -22045,7 +22049,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="579" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B579" t="s">
         <v>1055</v>
       </c>
@@ -22077,7 +22081,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="580" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B580" t="s">
         <v>1056</v>
       </c>
@@ -22109,7 +22113,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="581" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B581" t="s">
         <v>1057</v>
       </c>
@@ -22141,7 +22145,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="582" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B582" t="s">
         <v>1058</v>
       </c>
@@ -22173,7 +22177,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="583" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B583" t="s">
         <v>1059</v>
       </c>
@@ -22205,7 +22209,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="584" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B584" t="s">
         <v>1060</v>
       </c>
@@ -22237,7 +22241,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="585" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B585" t="s">
         <v>1061</v>
       </c>
@@ -22263,7 +22267,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="586" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B586" t="s">
         <v>1062</v>
       </c>
@@ -22295,7 +22299,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="587" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B587" t="s">
         <v>1063</v>
       </c>
@@ -22327,7 +22331,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="588" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B588" t="s">
         <v>1064</v>
       </c>
@@ -22373,9 +22377,9 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="7:10" x14ac:dyDescent="0.3">
       <c r="I2" t="s">
         <v>648</v>
       </c>
@@ -22383,7 +22387,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="3" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G3">
         <v>200</v>
       </c>
@@ -22395,7 +22399,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="4" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G4">
         <v>176</v>
       </c>
@@ -22403,7 +22407,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="5" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G5">
         <v>57</v>
       </c>
@@ -22411,7 +22415,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="6" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G6">
         <v>75</v>
       </c>
@@ -22419,7 +22423,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="7" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G7">
         <v>100</v>
       </c>
@@ -22427,7 +22431,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="8" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G8">
         <v>72</v>
       </c>
@@ -22435,7 +22439,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="9" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G9">
         <f>23*5</f>
         <v>115</v>
@@ -22444,7 +22448,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="10" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G10">
         <v>250</v>
       </c>
